--- a/AbgabeCD/Bericht/Stundenliste-MichaelSchneider.xlsx
+++ b/AbgabeCD/Bericht/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\AbgabeCD\Bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09061902-3524-409E-8511-9FDB81FA60F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0755054-B1E1-4EFF-90F1-B2C6C705DC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Strukturanpassung, Dokumentation, Präsentation, Abgabevorbereitung</t>
+  </si>
+  <si>
+    <t>Gesamt:</t>
   </si>
 </sst>
 </file>
@@ -255,6 +258,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1501589</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>457615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A2023D-143C-4371-AA67-463B3A609BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6566648" y="14959854"/>
+          <a:ext cx="1299882" cy="423996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +624,7 @@
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -828,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C41" si="2">C18+B19</f>
+        <f t="shared" ref="C19:C43" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1163,6 +1222,15 @@
       </c>
       <c r="D41" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <f>C41</f>
+        <v>153.5</v>
       </c>
     </row>
   </sheetData>
@@ -1171,6 +1239,7 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>